--- a/UF INFRA-GROUPE18/UF INFRA.xlsx
+++ b/UF INFRA-GROUPE18/UF INFRA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manci\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manci\Desktop\UF INFRA-GROUPE18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A46F6D-01D1-41E1-940E-6DC3A0BB6DDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE475970-13E9-4C9A-B504-20E043D10610}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suivi de projet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Projet</t>
   </si>
@@ -97,12 +97,6 @@
     <t>Julien</t>
   </si>
   <si>
-    <t>Loic</t>
-  </si>
-  <si>
-    <t>Sofian</t>
-  </si>
-  <si>
     <t>Rendu</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>Packet Tracer</t>
   </si>
   <si>
-    <t>A Définir</t>
-  </si>
-  <si>
     <t>PROJET INFRASTRUCTURE INFO B1 A</t>
   </si>
   <si>
@@ -148,18 +139,9 @@
     <t>Construction Reseau VM</t>
   </si>
   <si>
-    <t>Avril</t>
-  </si>
-  <si>
-    <t>Mars</t>
-  </si>
-  <si>
     <t>Accès Reseau</t>
   </si>
   <si>
-    <t>Tous</t>
-  </si>
-  <si>
     <t>RenduFinal</t>
   </si>
   <si>
@@ -178,7 +160,13 @@
     <t>LOIC PIERRET</t>
   </si>
   <si>
-    <t>SOFIAN ROGER</t>
+    <t>/</t>
+  </si>
+  <si>
+    <t>JEREMY MASSE</t>
+  </si>
+  <si>
+    <t>Problème connexion APACHE</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1585,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1621,17 +1609,17 @@
   <sheetData>
     <row r="1" spans="1:18" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1"/>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1649,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>1</v>
@@ -1685,10 +1673,10 @@
         <v>11</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
@@ -1698,7 +1686,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>17</v>
@@ -1721,7 +1709,7 @@
       </c>
       <c r="J5" s="9">
         <f ca="1">TODAY()</f>
-        <v>43490</v>
+        <v>43634</v>
       </c>
       <c r="K5" s="13">
         <f>IFERROR(IF(SuiviProjet[Travail réel (en heures)]=0,"",IF(ABS((SuiviProjet[[#This Row],[Travail réel (en heures)]]-SuiviProjet[[#This Row],[Travail estimé (en heures)]])/SuiviProjet[[#This Row],[Travail estimé (en heures)]])&gt;IndicateurPourcent,1,0)),"")</f>
@@ -1736,7 +1724,7 @@
       </c>
       <c r="N5" s="14">
         <f ca="1">IF(COUNTA('Suivi de projet'!$I5,'Suivi de projet'!$J5)&lt;&gt;2,"",DAYS360('Suivi de projet'!$I5,'Suivi de projet'!$J5,FALSE))</f>
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="24">
@@ -1750,7 +1738,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>17</v>
@@ -1773,7 +1761,7 @@
       </c>
       <c r="J6" s="9">
         <f ca="1">TODAY()</f>
-        <v>43490</v>
+        <v>43634</v>
       </c>
       <c r="K6" s="13">
         <f>IFERROR(IF(SuiviProjet[Travail réel (en heures)]=0,"",IF(ABS((SuiviProjet[[#This Row],[Travail réel (en heures)]]-SuiviProjet[[#This Row],[Travail estimé (en heures)]])/SuiviProjet[[#This Row],[Travail estimé (en heures)]])&gt;IndicateurPourcent,1,0)),"")</f>
@@ -1788,10 +1776,10 @@
       </c>
       <c r="N6" s="14">
         <f ca="1">IF(COUNTA('Suivi de projet'!$I6,'Suivi de projet'!$J6)&lt;&gt;2,"",DAYS360('Suivi de projet'!$I6,'Suivi de projet'!$J6,FALSE))</f>
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="P6" s="24">
         <v>4</v>
@@ -1801,13 +1789,13 @@
     </row>
     <row r="7" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E7" s="9">
         <v>43507</v>
@@ -1820,20 +1808,26 @@
         <f>IF(COUNTA('Suivi de projet'!$E7,'Suivi de projet'!$F7)&lt;&gt;2,"",DAYS360('Suivi de projet'!$E7,'Suivi de projet'!$F7,FALSE))</f>
         <v>17</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="9"/>
+      <c r="I7" s="12">
+        <v>43507</v>
+      </c>
+      <c r="J7" s="9">
+        <v>43508</v>
+      </c>
       <c r="K7" s="13" t="str">
         <f>IFERROR(IF(SuiviProjet[Travail réel (en heures)]=0,"",IF(ABS((SuiviProjet[[#This Row],[Travail réel (en heures)]]-SuiviProjet[[#This Row],[Travail estimé (en heures)]])/SuiviProjet[[#This Row],[Travail estimé (en heures)]])&gt;IndicateurPourcent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="13" t="str">
+      <c r="L7" s="10">
+        <v>3</v>
+      </c>
+      <c r="M7" s="13">
         <f>IFERROR(IF(SuiviProjet[Durée réelle (en jours)]=0,"",IF(ABS((SuiviProjet[[#This Row],[Durée réelle (en jours)]]-SuiviProjet[[#This Row],[Durée estimée (en jours)]])/SuiviProjet[[#This Row],[Durée estimée (en jours)]])&gt;IndicateurPourcent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="N7" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14">
         <f>IF(COUNTA('Suivi de projet'!$I7,'Suivi de projet'!$J7)&lt;&gt;2,"",DAYS360('Suivi de projet'!$I7,'Suivi de projet'!$J7,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="24">
@@ -1844,10 +1838,10 @@
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>17</v>
@@ -1867,19 +1861,21 @@
       <c r="I8" s="12">
         <v>43488</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="9">
+        <v>43489</v>
+      </c>
       <c r="K8" s="13" t="str">
         <f>IFERROR(IF(SuiviProjet[Travail réel (en heures)]=0,"",IF(ABS((SuiviProjet[[#This Row],[Travail réel (en heures)]]-SuiviProjet[[#This Row],[Travail estimé (en heures)]])/SuiviProjet[[#This Row],[Travail estimé (en heures)]])&gt;IndicateurPourcent,1,0)),"")</f>
         <v/>
       </c>
       <c r="L8" s="10"/>
-      <c r="M8" s="13" t="str">
+      <c r="M8" s="13">
         <f>IFERROR(IF(SuiviProjet[Durée réelle (en jours)]=0,"",IF(ABS((SuiviProjet[[#This Row],[Durée réelle (en jours)]]-SuiviProjet[[#This Row],[Durée estimée (en jours)]])/SuiviProjet[[#This Row],[Durée estimée (en jours)]])&gt;IndicateurPourcent,1,0)),"")</f>
-        <v/>
-      </c>
-      <c r="N8" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="N8" s="14">
         <f>IF(COUNTA('Suivi de projet'!$I8,'Suivi de projet'!$J8)&lt;&gt;2,"",DAYS360('Suivi de projet'!$I8,'Suivi de projet'!$J8,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O8" s="22"/>
       <c r="P8" s="24">
@@ -1890,16 +1886,16 @@
     </row>
     <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="9">
-        <v>43483</v>
+        <v>43542</v>
       </c>
       <c r="F9" s="9">
         <v>43553</v>
@@ -1911,9 +1907,11 @@
         <v>1</v>
       </c>
       <c r="I9" s="12">
-        <v>43483</v>
-      </c>
-      <c r="J9" s="9"/>
+        <v>43542</v>
+      </c>
+      <c r="J9" s="9">
+        <v>43542</v>
+      </c>
       <c r="K9" s="13" t="str">
         <f>IFERROR(IF(SuiviProjet[Travail réel (en heures)]=0,"",IF(ABS((SuiviProjet[[#This Row],[Travail réel (en heures)]]-SuiviProjet[[#This Row],[Travail estimé (en heures)]])/SuiviProjet[[#This Row],[Travail estimé (en heures)]])&gt;IndicateurPourcent,1,0)),"")</f>
         <v/>
@@ -1923,9 +1921,9 @@
         <f>IFERROR(IF(SuiviProjet[Durée réelle (en jours)]=0,"",IF(ABS((SuiviProjet[[#This Row],[Durée réelle (en jours)]]-SuiviProjet[[#This Row],[Durée estimée (en jours)]])/SuiviProjet[[#This Row],[Durée estimée (en jours)]])&gt;IndicateurPourcent,1,0)),"")</f>
         <v/>
       </c>
-      <c r="N9" s="14" t="str">
+      <c r="N9" s="14">
         <f>IF(COUNTA('Suivi de projet'!$I9,'Suivi de projet'!$J9)&lt;&gt;2,"",DAYS360('Suivi de projet'!$I9,'Suivi de projet'!$J9,FALSE))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="24">
@@ -1936,16 +1934,16 @@
     </row>
     <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>36</v>
+      <c r="E10" s="9">
+        <v>43546</v>
       </c>
       <c r="F10" s="9">
         <v>43553</v>
@@ -1980,16 +1978,16 @@
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F11" s="9">
         <v>43585</v>
@@ -2023,13 +2021,13 @@
     </row>
     <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9">
@@ -2056,7 +2054,9 @@
         <f>IF(COUNTA('Suivi de projet'!$I12,'Suivi de projet'!$J12)&lt;&gt;2,"",DAYS360('Suivi de projet'!$I12,'Suivi de projet'!$J12,FALSE))</f>
         <v/>
       </c>
-      <c r="O12" s="22"/>
+      <c r="O12" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="P12" s="24">
         <v>5</v>
       </c>
@@ -2065,22 +2065,24 @@
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="E13" s="9">
+        <v>43487</v>
+      </c>
       <c r="F13" s="9">
         <v>43640</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="11" t="str">
+      <c r="H13" s="11">
         <f>IF(COUNTA('Suivi de projet'!$E13,'Suivi de projet'!$F13)&lt;&gt;2,"",DAYS360('Suivi de projet'!$E13,'Suivi de projet'!$F13,FALSE))</f>
-        <v/>
+        <v>152</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="9"/>
@@ -2259,7 +2261,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2286,7 +2288,7 @@
     </row>
     <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>17</v>
@@ -2294,43 +2296,51 @@
     </row>
     <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="23"/>
+        <v>33</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
